--- a/table/dredge/bio_sp_d.xlsx
+++ b/table/dredge/bio_sp_d.xlsx
@@ -365,32 +365,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Cruise</t>
+          <t>Depth</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Depth</t>
+          <t>DRM</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>DRM</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Cruise:Depth</t>
+          <t>Depth:DRM</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Cruise:DRM</t>
+          <t>Depth:Month</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Depth:DRM</t>
+          <t>DRM:Month</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -438,21 +438,21 @@
       <c r="A2">
         <v>1.005045803020151</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>-0.3395471444682085</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="C2">
+        <v>-0.3395471444682089</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
       <c r="H2">
-        <v>0.3307319649639235</v>
+        <v>0.330731964963923</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -461,16 +461,16 @@
         <v>-25.83004021622049</v>
       </c>
       <c r="K2">
-        <v>63.88230265466319</v>
+        <v>63.88230265466321</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4893838242007762</v>
+        <v>0.4893838242007741</v>
       </c>
       <c r="N2">
-        <v>0.2614973406498466</v>
+        <v>0.2614973406498461</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -480,24 +480,24 @@
       <c r="A3">
         <v>0.9978965351031537</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+      <c r="B3">
+        <v>0.07911341566539438</v>
       </c>
       <c r="C3">
-        <v>0.07911341566539447</v>
-      </c>
-      <c r="D3">
-        <v>-0.302623517955576</v>
-      </c>
-      <c r="F3" t="inlineStr">
+        <v>-0.3026235179555763</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
       <c r="H3">
-        <v>0.3425687334411729</v>
+        <v>0.3425687334411727</v>
       </c>
       <c r="I3">
         <v>6</v>
@@ -509,13 +509,13 @@
         <v>66.30198416181777</v>
       </c>
       <c r="L3">
-        <v>2.419681507154579</v>
+        <v>2.419681507154564</v>
       </c>
       <c r="M3">
-        <v>0.1459561661204091</v>
+        <v>0.1459561661204095</v>
       </c>
       <c r="N3">
-        <v>0.2486499810756262</v>
+        <v>0.2486499810756259</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
@@ -525,23 +525,23 @@
       <c r="A4">
         <v>1.018046558648722</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+      <c r="B4">
+        <v>-0.1438656651210444</v>
       </c>
       <c r="C4">
-        <v>-0.1438656651210443</v>
-      </c>
-      <c r="D4">
         <v>-0.4066917879176565</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -553,16 +553,16 @@
         <v>7</v>
       </c>
       <c r="J4">
-        <v>-24.00158869585069</v>
+        <v>-24.00158869585068</v>
       </c>
       <c r="K4">
-        <v>66.48317739170138</v>
+        <v>66.48317739170136</v>
       </c>
       <c r="L4">
-        <v>2.600874737038183</v>
+        <v>2.600874737038154</v>
       </c>
       <c r="M4">
-        <v>0.1333143308470336</v>
+        <v>0.1333143308470349</v>
       </c>
       <c r="N4">
         <v>0.2899975481749619</v>
@@ -575,27 +575,27 @@
       <c r="A5">
         <v>1.055902431953838</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+      <c r="B5">
+        <v>0.08694104806002551</v>
       </c>
       <c r="C5">
-        <v>0.08694104806002556</v>
-      </c>
-      <c r="D5">
-        <v>-0.2328601803217149</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G5">
+        <v>-0.2328601803217152</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="E5">
         <v>0.1486646389153216</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="H5">
-        <v>0.363516360544253</v>
+        <v>0.3635163605442524</v>
       </c>
       <c r="I5">
         <v>7</v>
@@ -604,16 +604,16 @@
         <v>-25.00131259530585</v>
       </c>
       <c r="K5">
-        <v>68.4826251906117</v>
+        <v>68.48262519061171</v>
       </c>
       <c r="L5">
         <v>4.600322535948507</v>
       </c>
       <c r="M5">
-        <v>0.0490571443667613</v>
+        <v>0.04905714436676108</v>
       </c>
       <c r="N5">
-        <v>0.2456490199042998</v>
+        <v>0.2456490199042991</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
@@ -630,16 +630,16 @@
         <v>2</v>
       </c>
       <c r="J6">
-        <v>-32.45595592166236</v>
+        <v>-32.45595592166235</v>
       </c>
       <c r="K6">
-        <v>69.31191184332472</v>
+        <v>69.31191184332471</v>
       </c>
       <c r="L6">
-        <v>5.42960918866153</v>
+        <v>5.429609188661502</v>
       </c>
       <c r="M6">
-        <v>0.03240596477422382</v>
+        <v>0.03240596477422415</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -652,11 +652,11 @@
       <c r="A7">
         <v>1.116776571973541</v>
       </c>
-      <c r="C7">
+      <c r="B7">
         <v>0.1771497258443417</v>
       </c>
       <c r="H7">
-        <v>0.06815431984537368</v>
+        <v>0.06815431984537323</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -668,13 +668,13 @@
         <v>69.41009216131664</v>
       </c>
       <c r="L7">
-        <v>5.527789506653448</v>
+        <v>5.527789506653434</v>
       </c>
       <c r="M7">
-        <v>0.03085356629572881</v>
+        <v>0.03085356629572889</v>
       </c>
       <c r="N7">
-        <v>0.03809478177586956</v>
+        <v>0.03809478177586911</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -684,32 +684,32 @@
       <c r="A8">
         <v>1.044498538196442</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+      <c r="B8">
+        <v>-0.1178129235351062</v>
       </c>
       <c r="C8">
-        <v>-0.117812923535106</v>
-      </c>
-      <c r="D8">
-        <v>-0.3620971573167617</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+        <v>-0.362097157316762</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="E8">
+        <v>0.07293885038244627</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="G8">
-        <v>0.07293885038244644</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="H8">
-        <v>0.4053986377333112</v>
+        <v>0.405398637733311</v>
       </c>
       <c r="I8">
         <v>8</v>
@@ -721,13 +721,13 @@
         <v>69.75639729055341</v>
       </c>
       <c r="L8">
-        <v>5.874094635890216</v>
+        <v>5.874094635890202</v>
       </c>
       <c r="M8">
-        <v>0.02594813609395955</v>
+        <v>0.02594813609395962</v>
       </c>
       <c r="N8">
-        <v>0.2681829387486907</v>
+        <v>0.2681829387486905</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -737,7 +737,7 @@
       <c r="A9">
         <v>1.116776571973541</v>
       </c>
-      <c r="D9">
+      <c r="C9">
         <v>0.1170974647800254</v>
       </c>
       <c r="H9">
@@ -747,16 +747,16 @@
         <v>3</v>
       </c>
       <c r="J9">
-        <v>-31.95714100363684</v>
+        <v>-31.95714100363683</v>
       </c>
       <c r="K9">
-        <v>70.74186821417024</v>
+        <v>70.74186821417022</v>
       </c>
       <c r="L9">
-        <v>6.859565559507047</v>
+        <v>6.859565559507018</v>
       </c>
       <c r="M9">
-        <v>0.0158530881673444</v>
+        <v>0.01585308816734456</v>
       </c>
       <c r="N9">
         <v>-0.001518643133860298</v>
@@ -769,32 +769,32 @@
       <c r="A10">
         <v>1.116776571973541</v>
       </c>
+      <c r="B10">
+        <v>0.1833539723030487</v>
+      </c>
       <c r="C10">
-        <v>0.1833539723030486</v>
-      </c>
-      <c r="D10">
-        <v>0.1261174181684734</v>
+        <v>0.1261174181684735</v>
       </c>
       <c r="H10">
-        <v>0.1026139224622507</v>
+        <v>0.1026139224622499</v>
       </c>
       <c r="I10">
         <v>4</v>
       </c>
       <c r="J10">
-        <v>-30.66951577525996</v>
+        <v>-30.66951577525997</v>
       </c>
       <c r="K10">
-        <v>70.76760297909135</v>
+        <v>70.76760297909136</v>
       </c>
       <c r="L10">
         <v>6.885300324428158</v>
       </c>
       <c r="M10">
-        <v>0.01565040720193894</v>
+        <v>0.01565040720193887</v>
       </c>
       <c r="N10">
-        <v>0.04278818395973405</v>
+        <v>0.04278818395973316</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
@@ -804,16 +804,16 @@
       <c r="A11">
         <v>1.001388097620557</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="C11">
+      <c r="B11">
         <v>0.1893523149359384</v>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="H11">
-        <v>0.09433721372169635</v>
+        <v>0.0943372137216959</v>
       </c>
       <c r="I11">
         <v>4</v>
@@ -825,13 +825,13 @@
         <v>71.07057125953548</v>
       </c>
       <c r="L11">
-        <v>7.188268604872292</v>
+        <v>7.188268604872277</v>
       </c>
       <c r="M11">
-        <v>0.01345045313370752</v>
+        <v>0.01345045313370756</v>
       </c>
       <c r="N11">
-        <v>0.03395969463647608</v>
+        <v>0.03395969463647563</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
@@ -841,13 +841,13 @@
       <c r="A12">
         <v>1.023232930964413</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
       <c r="H12">
-        <v>0.0174201703669894</v>
+        <v>0.01742017036698895</v>
       </c>
       <c r="I12">
         <v>3</v>
@@ -859,13 +859,13 @@
         <v>71.15956637907023</v>
       </c>
       <c r="L12">
-        <v>7.277263724407035</v>
+        <v>7.277263724407021</v>
       </c>
       <c r="M12">
-        <v>0.01286506162629886</v>
+        <v>0.0128650616262989</v>
       </c>
       <c r="N12">
-        <v>-0.01427595316955932</v>
+        <v>-0.01427595316955976</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
@@ -875,17 +875,17 @@
       <c r="A13">
         <v>1.126605405438447</v>
       </c>
+      <c r="B13">
+        <v>0.197265482883538</v>
+      </c>
       <c r="C13">
-        <v>0.1972654828835379</v>
-      </c>
-      <c r="D13">
-        <v>0.2058344846318506</v>
-      </c>
-      <c r="G13">
-        <v>0.2197762160638419</v>
+        <v>0.2058344846318508</v>
+      </c>
+      <c r="E13">
+        <v>0.2197762160638421</v>
       </c>
       <c r="H13">
-        <v>0.1600601718682544</v>
+        <v>0.1600601718682541</v>
       </c>
       <c r="I13">
         <v>5</v>
@@ -897,13 +897,13 @@
         <v>71.3781083102743</v>
       </c>
       <c r="L13">
-        <v>7.495805655611108</v>
+        <v>7.495805655611093</v>
       </c>
       <c r="M13">
-        <v>0.01153336651424875</v>
+        <v>0.01153336651424878</v>
       </c>
       <c r="N13">
-        <v>0.07316984482014277</v>
+        <v>0.07316984482014244</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
@@ -913,15 +913,15 @@
       <c r="A14">
         <v>1.019381863951555</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="C14">
-        <v>0.03338127796077422</v>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="B14">
+        <v>0.03338127796077408</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>+</t>
         </is>
@@ -933,16 +933,16 @@
         <v>5</v>
       </c>
       <c r="J14">
-        <v>-30.1062921251985</v>
+        <v>-30.10629212519849</v>
       </c>
       <c r="K14">
-        <v>72.43480647261922</v>
+        <v>72.4348064726192</v>
       </c>
       <c r="L14">
-        <v>8.552503817956023</v>
+        <v>8.552503817955994</v>
       </c>
       <c r="M14">
-        <v>0.006799813526122139</v>
+        <v>0.006799813526122207</v>
       </c>
       <c r="N14">
         <v>0.04301139407936361</v>
@@ -955,19 +955,19 @@
       <c r="A15">
         <v>1.007268537653741</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+      <c r="B15">
+        <v>0.1946976382412989</v>
       </c>
       <c r="C15">
-        <v>0.1946976382412989</v>
-      </c>
-      <c r="D15">
-        <v>0.1212986907912632</v>
+        <v>0.1212986907912633</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
       </c>
       <c r="H15">
-        <v>0.1261458393100863</v>
+        <v>0.1261458393100859</v>
       </c>
       <c r="I15">
         <v>5</v>
@@ -979,13 +979,13 @@
         <v>72.68435527772452</v>
       </c>
       <c r="L15">
-        <v>8.802052623061329</v>
+        <v>8.802052623061314</v>
       </c>
       <c r="M15">
-        <v>0.006002168296075449</v>
+        <v>0.006002168296075466</v>
       </c>
       <c r="N15">
-        <v>0.03574713303181931</v>
+        <v>0.03574713303181898</v>
       </c>
       <c r="O15" t="b">
         <v>1</v>
@@ -995,16 +995,16 @@
       <c r="A16">
         <v>1.029274889314625</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D16">
+      <c r="C16">
         <v>0.1128011916503565</v>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="H16">
-        <v>0.04498124441349671</v>
+        <v>0.04498124441349627</v>
       </c>
       <c r="I16">
         <v>4</v>
@@ -1016,13 +1016,13 @@
         <v>72.82168139378632</v>
       </c>
       <c r="L16">
-        <v>8.939378739123129</v>
+        <v>8.939378739123114</v>
       </c>
       <c r="M16">
-        <v>0.005603871670534247</v>
+        <v>0.005603871670534263</v>
       </c>
       <c r="N16">
-        <v>-0.01868667262560342</v>
+        <v>-0.01868667262560408</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
@@ -1032,22 +1032,22 @@
       <c r="A17">
         <v>1.083283367767211</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+      <c r="B17">
+        <v>0.2001267315573115</v>
       </c>
       <c r="C17">
-        <v>0.2001267315573114</v>
-      </c>
-      <c r="D17">
-        <v>0.1952912399265133</v>
-      </c>
-      <c r="G17">
+        <v>0.1952912399265134</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="E17">
         <v>0.1958347189466294</v>
       </c>
       <c r="H17">
-        <v>0.1628815042493791</v>
+        <v>0.1628815042493786</v>
       </c>
       <c r="I17">
         <v>6</v>
@@ -1059,13 +1059,13 @@
         <v>74.27562273863649</v>
       </c>
       <c r="L17">
-        <v>10.39332008397329</v>
+        <v>10.39332008397328</v>
       </c>
       <c r="M17">
-        <v>0.00270874941030489</v>
+        <v>0.002708749410304898</v>
       </c>
       <c r="N17">
-        <v>0.04329314771357606</v>
+        <v>0.04329314771357562</v>
       </c>
       <c r="O17" t="b">
         <v>1</v>
@@ -1075,24 +1075,24 @@
       <c r="A18">
         <v>1.019665447201915</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+      <c r="B18">
+        <v>0.07102380370289117</v>
       </c>
       <c r="C18">
-        <v>0.07102380370289123</v>
-      </c>
-      <c r="D18">
-        <v>0.08637049434884321</v>
-      </c>
-      <c r="E18" t="inlineStr">
+        <v>0.08637049434884325</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
       <c r="H18">
-        <v>0.1470496042877668</v>
+        <v>0.1470496042877665</v>
       </c>
       <c r="I18">
         <v>6</v>
@@ -1104,13 +1104,13 @@
         <v>74.89390283866679</v>
       </c>
       <c r="L18">
-        <v>11.0116001840036</v>
+        <v>11.01160018400358</v>
       </c>
       <c r="M18">
-        <v>0.001988433228260602</v>
+        <v>0.001988433228260608</v>
       </c>
       <c r="N18">
-        <v>0.02519954775744782</v>
+        <v>0.02519954775744737</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
@@ -1120,45 +1120,45 @@
       <c r="A19">
         <v>1.079774342685465</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
+      <c r="B19">
+        <v>0.1187194610495932</v>
       </c>
       <c r="C19">
-        <v>0.1187194610495932</v>
-      </c>
-      <c r="D19">
-        <v>0.1612557501989791</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="G19">
+        <v>0.1612557501989792</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="E19">
         <v>0.1659854395707197</v>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="H19">
-        <v>0.1709020868653546</v>
+        <v>0.170902086865355</v>
       </c>
       <c r="I19">
         <v>7</v>
       </c>
       <c r="J19">
-        <v>-29.36357507700964</v>
+        <v>-29.36357507700962</v>
       </c>
       <c r="K19">
-        <v>77.20715015401927</v>
+        <v>77.20715015401925</v>
       </c>
       <c r="L19">
-        <v>13.32484749935608</v>
+        <v>13.32484749935604</v>
       </c>
       <c r="M19">
-        <v>0.0006254545262718832</v>
+        <v>0.0006254545262718938</v>
       </c>
       <c r="N19">
-        <v>0.01736543628486464</v>
+        <v>0.0173654362848652</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
